--- a/data/trans_dic/P44A$analisis-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1015,22 +1016,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,49; 76,25</t>
+          <t>21,47; 77,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 58,21</t>
+          <t>19,95; 58,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 94,44</t>
+          <t>11,65; 94,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 63,04</t>
+          <t>16,54; 59,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,22 +1041,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 16,23</t>
+          <t>4,83; 17,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,24; 58,17</t>
+          <t>24,43; 58,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,72; 43,87</t>
+          <t>13,98; 42,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,13; 91,28</t>
+          <t>10,57; 92,59</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,39; 48,43</t>
+          <t>17,41; 48,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,54; 47,16</t>
+          <t>19,12; 45,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,13; 20,08</t>
+          <t>9,73; 19,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,45; 44,21</t>
+          <t>9,94; 44,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,01; 55,16</t>
+          <t>19,48; 52,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,49; 13,9</t>
+          <t>6,37; 13,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,62; 40,65</t>
+          <t>18,71; 42,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,34; 44,78</t>
+          <t>23,9; 44,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,44; 15,65</t>
+          <t>9,16; 15,27</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 56,46</t>
+          <t>16,76; 54,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,1; 58,57</t>
+          <t>28,68; 60,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,84; 18,58</t>
+          <t>9,66; 18,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,11; 49,94</t>
+          <t>16,39; 50,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>18,81; 51,0</t>
+          <t>18,6; 50,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,98; 16,99</t>
+          <t>9,01; 16,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,08; 47,3</t>
+          <t>21,08; 47,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,66; 49,75</t>
+          <t>27,41; 51,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,17; 16,28</t>
+          <t>10,32; 16,42</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,22; 67,84</t>
+          <t>29,39; 67,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,89; 51,94</t>
+          <t>20,57; 50,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,9; 16,24</t>
+          <t>6,35; 16,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,69; 59,68</t>
+          <t>16,09; 59,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,12; 62,97</t>
+          <t>24,18; 61,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,81; 18,36</t>
+          <t>9,03; 18,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,15; 57,83</t>
+          <t>28,02; 58,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,71; 51,6</t>
+          <t>28,93; 51,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,77; 15,89</t>
+          <t>8,79; 15,64</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,55; 47,92</t>
+          <t>27,99; 47,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,02; 44,46</t>
+          <t>29,1; 44,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,64; 74,17</t>
+          <t>12,88; 74,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,73; 42,18</t>
+          <t>23,71; 41,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,02; 43,69</t>
+          <t>25,43; 44,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,45</t>
+          <t>9,24; 13,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,88; 41,26</t>
+          <t>28,24; 41,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,82; 41,6</t>
+          <t>29,93; 41,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,91; 63,27</t>
+          <t>11,88; 60,49</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6620</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9896</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>256815</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6853</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14277</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9896</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>263668</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3043; 10955</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5344; 15713</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>38816; 315630</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3391; 12139</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1885</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3451; 12320</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8473; 20201</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5287; 15983</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>42787; 374689</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12368</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>16587</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>26583</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8211</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13683</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14949</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20579</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>30271</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>41532</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6850; 19041</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10019; 23971</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17833; 35578</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3355; 15139</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7373; 19827</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9916; 21575</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13675; 31181</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21563; 39962</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>31044; 51764</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10306</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18492</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>22515</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10033</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10076</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17907</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20339</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>28568</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>40422</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5130; 16781</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12595; 26408</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15831; 30584</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5145; 15699</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5803; 15747</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12883; 24192</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13068; 29404</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>20582; 38450</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>31666; 50402</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11777</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>13264</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10055</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>7871</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>15729</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>14215</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>19648</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>28993</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>24271</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>7418; 16947</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>7530; 18617</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6124; 16071</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3426; 12693</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>8720; 22093</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>9735; 20211</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>13041; 27141</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21016; 37731</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>17944; 31955</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>41070</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>58240</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>315969</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>33771</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>39488</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>53924</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>74842</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>97728</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>369892</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>30607; 52072</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>46469; 70793</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>100031; 577175</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>25357; 44873</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>29533; 51612</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>44190; 64092</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>61085; 90565</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>82559; 115787</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>149064; 759094</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$analisis-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que le han realizado, al menos, un análisis de sangre para detectar cáncer de cólon</t>
+          <t>Población a la que le han realizado al menos un análisis de sangre para detectar cáncer de cólon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
